--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,15 +55,15 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
@@ -82,97 +82,67 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>vicious</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>sucks</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>sad</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -184,18 +154,18 @@
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>important</t>
+    <t>social</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -208,112 +178,82 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>one</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -692,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS48"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,28 +640,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -923,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03985427218861998</v>
+        <v>0.0372151709917815</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -941,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.01475082332461422</v>
+        <v>0.01434971975901776</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -965,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04730860722819242</v>
+        <v>0.04411060602009414</v>
       </c>
       <c r="U3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -989,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AC3">
-        <v>0.07249649414615092</v>
+        <v>0.1356053124912702</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1013,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05820340459372138</v>
+        <v>0.2972056354323508</v>
       </c>
       <c r="AM3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AN3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1037,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AU3">
-        <v>0.05415531583945348</v>
+        <v>0.1092336937516688</v>
       </c>
       <c r="AV3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1061,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.07563508037856771</v>
+        <v>0.2601770186639368</v>
       </c>
       <c r="BE3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="BF3">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1085,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="BM3">
-        <v>0.04575070212743795</v>
+        <v>0.09356518598129594</v>
       </c>
       <c r="BN3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BO3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1109,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1117,13 +1057,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01156436730916003</v>
+        <v>0.01211895825576265</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1135,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.01298620788961768</v>
+        <v>0.01301856235623146</v>
       </c>
       <c r="L4">
         <v>29</v>
@@ -1165,13 +1105,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01370517468593683</v>
+        <v>0.01437294969924118</v>
       </c>
       <c r="U4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1183,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC4">
-        <v>0.06503751663883933</v>
+        <v>0.1225499318221855</v>
       </c>
       <c r="AD4">
         <v>29</v>
@@ -1213,13 +1153,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.0168340470058414</v>
+        <v>0.1000433779972596</v>
       </c>
       <c r="AM4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1231,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AU4">
-        <v>0.04925218357815991</v>
+        <v>0.09896927446918385</v>
       </c>
       <c r="AV4">
         <v>29</v>
@@ -1261,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.0218402427176887</v>
+        <v>0.0904534080957856</v>
       </c>
       <c r="BE4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1279,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BM4">
-        <v>0.04201875372583289</v>
+        <v>0.08495899635109544</v>
       </c>
       <c r="BN4">
         <v>29</v>
@@ -1311,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008528157422916585</v>
+        <v>0.00905194966341271</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1329,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.01040235202090506</v>
+        <v>0.01129080757924077</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1353,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.009971288475466161</v>
+        <v>0.0106026843894868</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1377,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>0.05486640939520031</v>
+        <v>0.1068901338170116</v>
       </c>
       <c r="AD5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1401,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01208048001380785</v>
+        <v>0.0741405620629874</v>
       </c>
       <c r="AM5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1425,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AU5">
-        <v>0.04301641946170648</v>
+        <v>0.08756276920558789</v>
       </c>
       <c r="AV5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1449,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.01545518647515454</v>
+        <v>0.06737235293880574</v>
       </c>
       <c r="BE5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1473,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="BM5">
-        <v>0.03758631098029445</v>
+        <v>0.0760795544061804</v>
       </c>
       <c r="BN5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BO5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1497,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1505,13 +1445,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005995194527039309</v>
+        <v>0.005621335043259907</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1523,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.009952832093899106</v>
+        <v>0.009552771690964752</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1547,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00710095250506538</v>
+        <v>0.006647865519655676</v>
       </c>
       <c r="U6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1571,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC6">
-        <v>0.05286670923035947</v>
+        <v>0.09084909009105097</v>
       </c>
       <c r="AD6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1595,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008717060319103485</v>
+        <v>0.04865418257727137</v>
       </c>
       <c r="AM6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1619,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AU6">
-        <v>0.04164220633943075</v>
+        <v>0.07565894311732634</v>
       </c>
       <c r="AV6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1643,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01130283282156445</v>
+        <v>0.04606768807729265</v>
       </c>
       <c r="BE6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1667,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="BM6">
-        <v>0.03649871940908402</v>
+        <v>0.06663382644773395</v>
       </c>
       <c r="BN6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BO6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1691,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1699,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003847066578508585</v>
+        <v>0.003886750649523532</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1720,16 +1660,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.006074474115981916</v>
+        <v>0.007998774707442377</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1741,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004531709570391347</v>
+        <v>0.004578889937355245</v>
       </c>
       <c r="U7">
         <v>8</v>
@@ -1768,16 +1708,16 @@
         <v>3</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AC7">
-        <v>0.0375685235070508</v>
+        <v>0.0633729600093491</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1789,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.005532341635450771</v>
+        <v>0.03484629316418556</v>
       </c>
       <c r="AM7">
         <v>8</v>
@@ -1816,16 +1756,16 @@
         <v>3</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AU7">
-        <v>0.03224288937799603</v>
+        <v>0.05560431125140858</v>
       </c>
       <c r="AV7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1837,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.007133352939545847</v>
+        <v>0.03410319601998757</v>
       </c>
       <c r="BE7">
         <v>8</v>
@@ -1864,16 +1804,16 @@
         <v>3</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BM7">
-        <v>0.02980248468437355</v>
+        <v>0.05098862441659548</v>
       </c>
       <c r="BN7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1885,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1893,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002997597263519654</v>
+        <v>0.003448606564902112</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1911,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.005356279333319498</v>
+        <v>0.006527273122865038</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1935,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>279</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.00355047625253269</v>
+        <v>0.004040280607390334</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1959,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AC8">
-        <v>0.03048326972039045</v>
+        <v>0.05742807208065798</v>
       </c>
       <c r="AD8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1983,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004358530159551743</v>
+        <v>0.03114589088786097</v>
       </c>
       <c r="AM8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2007,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AU8">
-        <v>0.02775079419749358</v>
+        <v>0.03706475598510104</v>
       </c>
       <c r="AV8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2031,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005651416410782227</v>
+        <v>0.03080590242613331</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2055,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BM8">
-        <v>0.02649867174039389</v>
+        <v>0.03604138921032012</v>
       </c>
       <c r="BN8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2079,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2087,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002995023088671402</v>
+        <v>0.003028454425029998</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2105,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.004333026254619649</v>
+        <v>0.003906082762433704</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2129,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003538248922003492</v>
+        <v>0.003587133014984637</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2153,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>0.02706521740061068</v>
+        <v>0.03878718155432651</v>
       </c>
       <c r="AD9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2177,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004332194370719623</v>
+        <v>0.02843920830374896</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2201,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AU9">
-        <v>0.02564175896750606</v>
+        <v>0.03657303012985012</v>
       </c>
       <c r="AV9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AW9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AX9">
         <v>1</v>
@@ -2225,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005602507088665431</v>
+        <v>0.02873329115039101</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2249,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="BM9">
-        <v>0.02498947708761253</v>
+        <v>0.03406927885501135</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2281,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00298215221443014</v>
+        <v>0.003025884147208669</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2299,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.003470024848483272</v>
+        <v>0.003478642054373357</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2329,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003477112269357497</v>
+        <v>0.00357492419533332</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2347,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AC10">
-        <v>0.02598308816686247</v>
+        <v>0.0350390270558772</v>
       </c>
       <c r="AD10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2371,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004200515426559019</v>
+        <v>0.02829724834771859</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2395,19 +2335,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AU10">
-        <v>0.02454157056575773</v>
+        <v>0.03443070752999325</v>
       </c>
       <c r="AV10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2425,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005357960478081455</v>
+        <v>0.02855833653351788</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2443,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="BM10">
-        <v>0.02418730915481903</v>
+        <v>0.03167245398955403</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2475,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00256900134375281</v>
+        <v>0.002595450896051237</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2496,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.003035949970566832</v>
+        <v>0.003043490512849021</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2523,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003041518597809563</v>
+        <v>0.003072941324322357</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2544,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AC11">
-        <v>0.02531466638287067</v>
+        <v>0.03100493826683788</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2571,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003732120738354047</v>
+        <v>0.0250227259394851</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2592,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AU11">
-        <v>0.02454157056575773</v>
+        <v>0.03142366845638626</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2619,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004837084163225223</v>
+        <v>0.02578590679028303</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2640,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BM11">
-        <v>0.02418730915481903</v>
+        <v>0.03167245398955403</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2669,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002140405423985967</v>
+        <v>0.002162447367072476</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2690,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.003035949970566832</v>
+        <v>0.003043490512849021</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2717,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002532560943086436</v>
+        <v>0.002558749633660078</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2738,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC12">
-        <v>0.02531466638287067</v>
+        <v>0.03100493826683788</v>
       </c>
       <c r="AD12">
         <v>6</v>
@@ -2765,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003105711317156353</v>
+        <v>0.02160624357522124</v>
       </c>
       <c r="AM12">
         <v>4</v>
@@ -2786,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AU12">
-        <v>0.02119533457375818</v>
+        <v>0.03142366845638626</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2807,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004022751915668221</v>
+        <v>0.02283852243017504</v>
       </c>
       <c r="BE12">
         <v>4</v>
@@ -2834,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="BM12">
-        <v>0.02173323475003569</v>
+        <v>0.02659566125187367</v>
       </c>
       <c r="BN12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2855,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2863,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002119812025199948</v>
+        <v>0.002141885144501839</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2884,16 +2824,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.001731151161969258</v>
+        <v>0.00216804687415769</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2905,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002434742298852845</v>
+        <v>0.002461079076449549</v>
       </c>
       <c r="U13">
         <v>4</v>
@@ -2932,16 +2872,16 @@
         <v>8</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AC13">
-        <v>0.02002148847180047</v>
+        <v>0.0227461378283659</v>
       </c>
       <c r="AD13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2953,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.002895025006499389</v>
+        <v>0.02047056392697828</v>
       </c>
       <c r="AM13">
         <v>4</v>
@@ -2980,16 +2920,16 @@
         <v>8</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AU13">
-        <v>0.02114966378700361</v>
+        <v>0.02516092989683948</v>
       </c>
       <c r="AV13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -3007,7 +2947,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.003631477338733857</v>
+        <v>0.02143888549518993</v>
       </c>
       <c r="BE13">
         <v>4</v>
@@ -3028,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BM13">
-        <v>0.02168566414363287</v>
+        <v>0.02419883638641634</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3057,7 +2997,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001711809504219123</v>
+        <v>0.001729443838093715</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3078,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.001728576987121005</v>
+        <v>0.001732895332633354</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3105,7 +3045,7 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002023603288363309</v>
+        <v>0.002044557942997799</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3126,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC14">
-        <v>0.01997996361395033</v>
+        <v>0.01871204903932658</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3153,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.002479301895958659</v>
+        <v>0.01818976121095739</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3174,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AU14">
-        <v>0.02014081695876442</v>
+        <v>0.02215389082323248</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3195,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.003208419668111218</v>
+        <v>0.01989113807006706</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3222,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BM14">
-        <v>0.02097863742364502</v>
+        <v>0.02419883638641634</v>
       </c>
       <c r="BN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3243,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3251,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001711809504219123</v>
+        <v>0.001729443838093715</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3272,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.001299650458901069</v>
+        <v>0.001732895332633354</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3293,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002023603288363309</v>
+        <v>0.002044557942997799</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3320,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AC15">
-        <v>0.01831246231191059</v>
+        <v>0.01871204903932658</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3341,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002479301895958659</v>
+        <v>0.01818976121095739</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3368,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AU15">
-        <v>0.02014081695876442</v>
+        <v>0.02215389082323248</v>
       </c>
       <c r="AV15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3389,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003208419668111218</v>
+        <v>0.01989113807006706</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3416,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="BM15">
-        <v>0.02097863742364502</v>
+        <v>0.02418215681698099</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="BP15">
         <v>1</v>
@@ -3437,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3445,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001709235329370871</v>
+        <v>0.001726873560272386</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3466,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.001299650458901069</v>
+        <v>0.001302884346751678</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3493,7 +3433,7 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00201137595783411</v>
+        <v>0.002032349123346483</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3514,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AC16">
-        <v>0.01831246231191059</v>
+        <v>0.0148685831106806</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3541,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002452966107126538</v>
+        <v>0.01804780125492702</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3562,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AU16">
-        <v>0.02014081695876442</v>
+        <v>0.01939551216195829</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3589,7 +3529,7 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.003159510345994422</v>
+        <v>0.01971618345319392</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3610,10 +3550,10 @@
         <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="BM16">
-        <v>0.02097863742364502</v>
+        <v>0.02208515452772472</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3639,13 +3579,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001709235329370871</v>
+        <v>0.001296440309114954</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3657,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.001299650458901069</v>
+        <v>0.001302884346751678</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3687,13 +3627,13 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00201137595783411</v>
+        <v>0.001530366252335521</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3705,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AC17">
-        <v>0.01831246231191059</v>
+        <v>0.0148685831106806</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3735,13 +3675,13 @@
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002452966107126538</v>
+        <v>0.01477327884669353</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3753,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AU17">
-        <v>0.02014081695876442</v>
+        <v>0.01939551216195829</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3783,13 +3723,13 @@
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.003159510345994422</v>
+        <v>0.01694375370995907</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3801,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="BM17">
-        <v>0.02097863742364502</v>
+        <v>0.02208515452772472</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3833,13 +3773,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001704086979674366</v>
+        <v>0.001293870031293624</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3851,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.001299650458901069</v>
+        <v>0.001297743791109018</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3875,19 +3815,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001986921296775713</v>
+        <v>0.001518157432684204</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3899,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.01831246231191059</v>
+        <v>0.01467796025028726</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3923,19 +3863,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.002400294529462297</v>
+        <v>0.01463131889066316</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3947,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AU18">
-        <v>0.02014081695876442</v>
+        <v>0.0191468517496255</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -3971,19 +3911,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.003061691701760831</v>
+        <v>0.01676879909308593</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3995,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="BM18">
-        <v>0.02097863742364502</v>
+        <v>0.02180201152095902</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4019,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4027,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001283213584452279</v>
+        <v>0.001291299753472294</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4045,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.001299650458901069</v>
+        <v>0.001297743791109018</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4069,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001514645633640182</v>
+        <v>0.001505948613032888</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4093,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.01831246231191059</v>
+        <v>0.01467796025028726</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4117,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001852892474760964</v>
+        <v>0.01448935893463279</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4141,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AU19">
-        <v>0.02014081695876442</v>
+        <v>0.0191468517496255</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4165,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002394087420554214</v>
+        <v>0.01659384447621279</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4189,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="BM19">
-        <v>0.02097863742364502</v>
+        <v>0.02180201152095902</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4213,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4221,7 +4161,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001283213584452279</v>
+        <v>0.001286159197829635</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4239,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.001299650458901069</v>
+        <v>0.001050997120261366</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4263,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001514645633640182</v>
+        <v>0.001481530973730256</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4287,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AC20">
-        <v>0.01831246231191059</v>
+        <v>0.01083449432164128</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -4317,7 +4257,7 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001852892474760964</v>
+        <v>0.01420543902257204</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4335,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AU20">
-        <v>0.02004947538525528</v>
+        <v>0.0163884730883513</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -4359,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002394087420554214</v>
+        <v>0.01624393524246651</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4383,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="BM20">
-        <v>0.02088349621083937</v>
+        <v>0.01968832966226739</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4407,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4415,7 +4355,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001283213584452279</v>
+        <v>0.001263026697437668</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4433,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.001294502109204565</v>
+        <v>0.0009019210066242432</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4457,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001514645633640182</v>
+        <v>0.001371651596868411</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4481,19 +4421,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AC21">
-        <v>0.01822941259621031</v>
+        <v>0.01083449432164128</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -4505,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001852892474760964</v>
+        <v>0.01292779941829871</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4529,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AU21">
-        <v>0.01995813381174615</v>
+        <v>0.0163884730883513</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4553,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002394087420554214</v>
+        <v>0.01466934369060827</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4577,19 +4517,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="BM21">
-        <v>0.02078835499803372</v>
+        <v>0.01968832966226739</v>
       </c>
       <c r="BN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4601,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4609,13 +4549,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001283213584452279</v>
+        <v>0.0008634367801361928</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4630,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.00128935375950806</v>
+        <v>0.0009019210066242432</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4651,19 +4591,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001514645633640182</v>
+        <v>0.001016174561673242</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -4678,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AC22">
-        <v>0.01814636288051004</v>
+        <v>0.01073918289144461</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4699,19 +4639,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001852892474760964</v>
+        <v>0.01135679648242967</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4726,16 +4666,16 @@
         <v>0</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AU22">
-        <v>0.0195007398734716</v>
+        <v>0.0162641428821849</v>
       </c>
       <c r="AV22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4747,19 +4687,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002394087420554214</v>
+        <v>0.01399636934985108</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>0</v>
@@ -4774,16 +4714,16 @@
         <v>0</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="BM22">
-        <v>0.02026507832760267</v>
+        <v>0.01954675815888454</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4795,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4803,13 +4743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001283213584452279</v>
+        <v>0.0008634367801361928</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4824,16 +4764,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.001261037836177283</v>
+        <v>0.000867732805227342</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4845,19 +4785,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001514645633640182</v>
+        <v>0.001016174561673242</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4872,16 +4812,16 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AC23">
-        <v>0.01768958944415853</v>
+        <v>0.01064387146124794</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4893,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001852892474760964</v>
+        <v>0.01135679648242967</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4920,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AU23">
-        <v>0.0194557551574459</v>
+        <v>0.0161398126760185</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4941,19 +4881,19 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002394087420554214</v>
+        <v>0.01399636934985108</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -4968,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="BM23">
-        <v>0.02017646949085151</v>
+        <v>0.01940518665550169</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4989,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4997,13 +4937,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001280639409604027</v>
+        <v>0.0008634367801361928</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5015,19 +4955,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.00123529608769476</v>
+        <v>0.000867732805227342</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -5039,19 +4979,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001502418303110983</v>
+        <v>0.001016174561673242</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -5063,19 +5003,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC24">
-        <v>0.01727434086565716</v>
+        <v>0.01064387146124794</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -5087,19 +5027,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001826556685928843</v>
+        <v>0.01135679648242967</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -5111,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AU24">
-        <v>0.01904062855701609</v>
+        <v>0.0161398126760185</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5135,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002345178098437419</v>
+        <v>0.01399636934985108</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5159,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="BM24">
-        <v>0.02017646949085151</v>
+        <v>0.01940518665550169</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5183,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5191,13 +5131,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001280639409604027</v>
+        <v>0.0008608665023148631</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5212,16 +5152,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.0008980791825736956</v>
+        <v>0.0008651625274060122</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -5233,19 +5173,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001502418303110983</v>
+        <v>0.001003965742021926</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5260,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AC25">
-        <v>0.01656191129417057</v>
+        <v>0.01064387146124794</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5281,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001826556685928843</v>
+        <v>0.0112148365263993</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5308,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AU25">
-        <v>0.01904062855701609</v>
+        <v>0.0161398126760185</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5329,19 +5269,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002345178098437419</v>
+        <v>0.01382141473297794</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5356,10 +5296,10 @@
         <v>1</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="BM25">
-        <v>0.02017646949085151</v>
+        <v>0.01940518665550169</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5377,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5385,13 +5325,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001278065234755774</v>
+        <v>0.0008608665023148631</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5403,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.0008655755809846288</v>
+        <v>0.0008625922495846826</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5427,19 +5367,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001490190972581784</v>
+        <v>0.001003965742021926</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5451,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AC26">
-        <v>0.01656191129417057</v>
+        <v>0.01054856003105127</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5475,19 +5415,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001800220897096722</v>
+        <v>0.0112148365263993</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5499,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AU26">
-        <v>0.01904062855701609</v>
+        <v>0.01601548246985211</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5523,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002296268776320623</v>
+        <v>0.01382141473297794</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5547,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BM26">
-        <v>0.02017646949085151</v>
+        <v>0.01926361515211884</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5571,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5579,13 +5519,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001275491059907522</v>
+        <v>0.0008608665023148631</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5597,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.0008655755809846288</v>
+        <v>0.0008625922495846826</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5621,19 +5561,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001477963642052585</v>
+        <v>0.001003965742021926</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5645,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AC27">
-        <v>0.01656191129417057</v>
+        <v>0.0104532486008546</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5669,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001773885108264602</v>
+        <v>0.0112148365263993</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5693,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AU27">
-        <v>0.01904062855701609</v>
+        <v>0.0158911522636857</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5717,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.002247359454203828</v>
+        <v>0.01382141473297794</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5741,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="BM27">
-        <v>0.02017646949085151</v>
+        <v>0.01912204364873599</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5765,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5773,13 +5713,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.001267768535362765</v>
+        <v>0.0008608665023148631</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5791,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.0008655755809846288</v>
+        <v>0.0008625922495846826</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5815,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001441281650464989</v>
+        <v>0.001003965742021926</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5839,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AC28">
-        <v>0.01656191129417057</v>
+        <v>0.0104532486008546</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5863,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.00169487774176824</v>
+        <v>0.0112148365263993</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5887,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AU28">
-        <v>0.01904062855701609</v>
+        <v>0.0158911522636857</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5911,19 +5851,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.002100631487853441</v>
+        <v>0.01382141473297794</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -5935,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="BM28">
-        <v>0.02017646949085151</v>
+        <v>0.01912204364873599</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5959,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5967,13 +5907,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001249749311424998</v>
+        <v>0.0008582962244935334</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5985,13 +5925,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.0008655755809846288</v>
+        <v>0.0008600219717633528</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6009,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001355690336760597</v>
+        <v>0.0009917569223706095</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6033,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AC29">
-        <v>0.01656191129417057</v>
+        <v>0.01035793717065793</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6057,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001510527219943396</v>
+        <v>0.01107287657036893</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -6081,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AU29">
-        <v>0.01904062855701609</v>
+        <v>0.01576682205751931</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6105,19 +6045,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001758266233035873</v>
+        <v>0.0136464601161048</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -6129,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="BM29">
-        <v>0.02017646949085151</v>
+        <v>0.01898047214535314</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6153,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6161,7 +6101,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0008546176646854353</v>
+        <v>0.0008557259466722036</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6179,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.0008655755809846288</v>
+        <v>0.0008574516939420232</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6203,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001005687978917055</v>
+        <v>0.0009795481027192934</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6227,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AC30">
-        <v>0.01656191129417057</v>
+        <v>0.01026262574046126</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6251,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001226483053563269</v>
+        <v>0.01093091661433856</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6275,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AU30">
-        <v>0.01904062855701609</v>
+        <v>0.01564249185135291</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6299,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001579755172997211</v>
+        <v>0.01347150549923167</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6323,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="BM30">
-        <v>0.02017646949085151</v>
+        <v>0.01883890064197029</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6347,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6355,7 +6295,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008546176646854353</v>
+        <v>0.0008557259466722036</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6373,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.0008655755809846288</v>
+        <v>0.0008574516939420232</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6397,13 +6337,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001005687978917055</v>
+        <v>0.0009795481027192934</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6421,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AC31">
-        <v>0.01656191129417057</v>
+        <v>0.01016731431026459</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6445,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001226483053563269</v>
+        <v>0.01093091661433856</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6469,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AU31">
-        <v>0.01904062855701609</v>
+        <v>0.01551816164518651</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6493,13 +6433,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001579755172997211</v>
+        <v>0.01347150549923167</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6517,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="BM31">
-        <v>0.02017646949085151</v>
+        <v>0.01869732913858744</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6541,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6549,7 +6489,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008546176646854353</v>
+        <v>0.000853155668850874</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6567,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.0008655755809846288</v>
+        <v>0.0008548814161206934</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6591,13 +6531,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001005687978917055</v>
+        <v>0.0009673392830679773</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6615,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AC32">
-        <v>0.01656191129417057</v>
+        <v>0.009500134298887894</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6639,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001226483053563269</v>
+        <v>0.01078895665830819</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6663,13 +6603,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AU32">
-        <v>0.01904062855701609</v>
+        <v>0.01464785020202171</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6687,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001579755172997211</v>
+        <v>0.01329655088235853</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6711,13 +6651,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="BM32">
-        <v>0.02017646949085151</v>
+        <v>0.01770632861490748</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6735,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6743,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008546176646854353</v>
+        <v>0.000853155668850874</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6761,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.0008655755809846288</v>
+        <v>0.0008523111382993637</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6785,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001005687978917055</v>
+        <v>0.0009673392830679773</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6809,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AC33">
-        <v>0.01656191129417057</v>
+        <v>0.009404822868691223</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6833,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001226483053563269</v>
+        <v>0.01078895665830819</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6857,13 +6797,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AU33">
-        <v>0.01904062855701609</v>
+        <v>0.01452351999585531</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6881,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001579755172997211</v>
+        <v>0.01329655088235853</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6905,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="BM33">
-        <v>0.02012889888444869</v>
+        <v>0.01756475711152463</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6929,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6937,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008546176646854353</v>
+        <v>0.0008480151132082144</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6955,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.0008655755809846288</v>
+        <v>0.0008497408604780341</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6979,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001005687978917055</v>
+        <v>0.0009429216437653452</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7003,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AC34">
-        <v>0.01656191129417057</v>
+        <v>0.009309511438494554</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7027,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001226483053563269</v>
+        <v>0.01050503674624744</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7051,19 +6991,19 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AU34">
-        <v>0.01899904728990022</v>
+        <v>0.01439918978968891</v>
       </c>
       <c r="AV34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX34">
         <v>1</v>
@@ -7075,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001579755172997211</v>
+        <v>0.01294664164861225</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7099,13 +7039,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="BM34">
-        <v>0.02003375767164304</v>
+        <v>0.01742318560814178</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7123,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7131,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008546176646854353</v>
+        <v>0.0008454448353868848</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7149,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.0008655755809846288</v>
+        <v>0.000831748915728726</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7173,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001005687978917055</v>
+        <v>0.000930712824114029</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7197,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AC35">
-        <v>0.01652038643632043</v>
+        <v>0.007879839985544496</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7221,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001226483053563269</v>
+        <v>0.01036307679021707</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7245,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AU35">
-        <v>0.01899495777026152</v>
+        <v>0.01253423669719292</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7269,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001579755172997211</v>
+        <v>0.01277168703173911</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7293,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BM35">
-        <v>0.01993861645883739</v>
+        <v>0.01529961305739902</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7317,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7325,7 +7265,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0008546176646854353</v>
+        <v>0.0008454448353868848</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7343,13 +7283,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.0008630014061363766</v>
+        <v>0.0008291786379073964</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7367,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001005687978917055</v>
+        <v>0.000930712824114029</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7391,19 +7331,19 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AC36">
-        <v>0.01643733672062016</v>
+        <v>0.005528062951406892</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -7415,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001226483053563269</v>
+        <v>0.01036307679021707</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7439,19 +7379,19 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AU36">
-        <v>0.01890361619675238</v>
+        <v>0.007211151957651161</v>
       </c>
       <c r="AV36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX36">
         <v>1</v>
@@ -7463,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001579755172997211</v>
+        <v>0.01277168703173911</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7487,19 +7427,19 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="BM36">
-        <v>0.01984347524603175</v>
+        <v>0.008211147196205346</v>
       </c>
       <c r="BN36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP36">
         <v>1</v>
@@ -7511,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7519,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0008546176646854353</v>
+        <v>0.000657814554429816</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7537,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.0008578530564398717</v>
+        <v>0.0008266083600860667</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7561,13 +7501,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001005687978917055</v>
+        <v>3.946898956795307E-05</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7585,19 +7525,19 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AC37">
-        <v>0.01635428700491989</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -7609,13 +7549,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001226483053563269</v>
+        <v>0</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7633,19 +7573,19 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AU37">
-        <v>0.01881227462324325</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX37">
         <v>1</v>
@@ -7657,13 +7597,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001579755172997211</v>
+        <v>0</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7681,19 +7621,19 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="BM37">
-        <v>0.01984347524603175</v>
+        <v>0</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP37">
         <v>1</v>
@@ -7705,39 +7645,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008546176646854353</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.0008527047067433669</v>
+        <v>0.0007880541927661209</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7755,43 +7671,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>5</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.001005687978917055</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AC38">
-        <v>0.01627123728921961</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -7803,43 +7695,19 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>7</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.001226483053563269</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AU38">
-        <v>0.01872093304973411</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX38">
         <v>1</v>
@@ -7851,43 +7719,19 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>7</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.001579755172997211</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="BM38">
-        <v>0.01979590463962893</v>
+        <v>0</v>
       </c>
       <c r="BN38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP38">
         <v>1</v>
@@ -7899,1851 +7743,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.000852043489837183</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39">
-        <v>0.0008475563570468621</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>7</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.0009934606483878563</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC39">
-        <v>0.01627123728921961</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>7</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001200147264731148</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU39">
-        <v>0.01872093304973411</v>
-      </c>
-      <c r="AV39">
-        <v>1</v>
-      </c>
-      <c r="AW39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>7</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001530845850880416</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>1</v>
-      </c>
-      <c r="BL39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM39">
-        <v>0.01978937226357444</v>
-      </c>
-      <c r="BN39">
-        <v>2</v>
-      </c>
-      <c r="BO39">
-        <v>2</v>
-      </c>
-      <c r="BP39">
-        <v>1</v>
-      </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.000852043489837183</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40">
-        <v>0.0008475563570468621</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>7</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.0009934606483878563</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC40">
-        <v>0.01622971243136947</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>8</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001200147264731148</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU40">
-        <v>0.01867526226297955</v>
-      </c>
-      <c r="AV40">
-        <v>1</v>
-      </c>
-      <c r="AW40">
-        <v>1</v>
-      </c>
-      <c r="AX40">
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>8</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001530845850880416</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
-      </c>
-      <c r="BL40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM40">
-        <v>0.01970076342682328</v>
-      </c>
-      <c r="BN40">
-        <v>1</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BP40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.000852043489837183</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41">
-        <v>0.0008449821821986097</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>8</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009934606483878563</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC41">
-        <v>0.0161466627156692</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>10</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001200147264731148</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU41">
-        <v>0.01858392068947041</v>
-      </c>
-      <c r="AV41">
-        <v>1</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>10</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001530845850880416</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
-      </c>
-      <c r="BL41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM41">
-        <v>0.01927262796919787</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BP41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.000852043489837183</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42">
-        <v>0.0008398338325021049</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009934606483878563</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC42">
-        <v>0.01577293899501796</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>19</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001200147264731148</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU42">
-        <v>0.0181728836086793</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>19</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001530845850880416</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM42">
-        <v>0.0191299161499894</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008494693149889306</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43">
-        <v>0.0008166662588678333</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>19</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009812333178586576</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>2</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC43">
-        <v>0.01564836442146755</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>22</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001173811475899028</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>2</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU43">
-        <v>0.0180358712484156</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>22</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.00148193652876362</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>2</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM43">
-        <v>0.0191299161499894</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008494693149889306</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44">
-        <v>0.0008089437343230761</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>22</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009812333178586576</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC44">
-        <v>0.01564836442146755</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>22</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001173811475899028</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>2</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU44">
-        <v>0.0180358712484156</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>22</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.00148193652876362</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>2</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM44">
-        <v>0.01653028549798588</v>
-      </c>
-      <c r="BN44">
-        <v>13</v>
-      </c>
-      <c r="BO44">
-        <v>13</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008468951401406781</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K45">
-        <v>0.0008089437343230761</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>22</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009690059873294586</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>3</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC45">
-        <v>0.01299077351905875</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>86</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.001147475687066907</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU45">
-        <v>0.01511294089612326</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>86</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001433027206646825</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>3</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM45">
-        <v>0.01608539734020872</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008468951401406781</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K46">
-        <v>0.0006441965440349229</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>86</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009690059873294586</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>3</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC46">
-        <v>0.01183458448728916</v>
-      </c>
-      <c r="AD46">
-        <v>2</v>
-      </c>
-      <c r="AE46">
-        <v>2</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
         <v>156</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.001147475687066907</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>3</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU46">
-        <v>0.01301617422505183</v>
-      </c>
-      <c r="AV46">
-        <v>2</v>
-      </c>
-      <c r="AW46">
-        <v>2</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>156</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001433027206646825</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>3</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM46">
-        <v>0.0135576228248046</v>
-      </c>
-      <c r="BN46">
-        <v>2</v>
-      </c>
-      <c r="BO46">
-        <v>2</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008443209652924257</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47">
-        <v>0.0004614301298090028</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>157</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009567786568002597</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC47">
-        <v>0.010042508611699</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>157</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.001121139898234786</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>4</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU47">
-        <v>0.01187031503654894</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>157</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.001384117884530029</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>4</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM47">
-        <v>0.01270788428560827</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="J48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48">
-        <v>0.0001644393508217631</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>441</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>2</v>
-      </c>
-      <c r="AE48">
-        <v>2</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>441</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>2</v>
-      </c>
-      <c r="AW48">
-        <v>2</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>441</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>2</v>
-      </c>
-      <c r="BO48">
-        <v>2</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
